--- a/開発資料/ステータスイベント.xlsx
+++ b/開発資料/ステータスイベント.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="87">
   <si>
     <t>まずはじめに、本Botではユーザーからメッセージを受け取った際、受け取ったメッセージを解析し</t>
     <rPh sb="7" eb="8">
@@ -252,11 +252,6 @@
     <rPh sb="17" eb="18">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RecvEvent_S00E00
-MAIN_MENU</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -428,31 +423,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RecvEventContent_S01E00
-REGIST_INPUT_DEMAND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RecvEventContent_S01E00
-REGIST_INPUT_ROUND</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RecvEventContent_S01E00
-REGIST_INPUT_REMARK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RecvEventContent_S01E00
-REGIST_INPUT_CONF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RecvEventContent_S01E00
-MAIN_MENU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RecvEventContent_S07E00
 「表2 状態遷移先一覧_2」に従う</t>
     <rPh sb="25" eb="26">
@@ -577,19 +547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBに新規ユーザーとして登録された状態</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メインメニューにいる状態。各処理終了後の基本状態</t>
     <rPh sb="10" eb="12">
       <t>ジョウタイ</t>
@@ -756,43 +713,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能選択待機（SELECT_MENU）で一件削除を選択した後の状態(削除対象ID選択)</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イッケン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除対象ID選択(DELETE_SELECT_ID)でID番号を入力した後の状態(削除確認待機)</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -862,6 +782,102 @@
     <rPh sb="67" eb="68">
       <t>ダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBに新規ユーザーとして登録された状態(新規登録状態)</t>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能選択待機（SELECT_MENU）で一件削除を選択した後の状態(削除対象ID入力待機)</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッケン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT_MENU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecvEventContent_S00E00
+MAIN_MENU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecvEventContent_S02E00
+REGIST_INPUT_DEMAND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecvEventContent_S03E00
+REGIST_INPUT_ROUND</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecvEventContent_S04E00
+REGIST_INPUT_REMARK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecvEventContent_S05E00
+REGIST_INPUT_CONF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecvEventContent_S06E00
+MAIN_MENU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1092,12 +1108,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,27 +1159,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1244,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="イベントテーブル定義!$A$1:$N$24" spid="_x0000_s1035"/>
+                  <a14:cameraTool cellRange="イベントテーブル定義!$A$1:$N$24" spid="_x0000_s1053"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1287,7 +1303,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="サブイベントテーブル定義!$A$1:$N$30" spid="_x0000_s1036"/>
+                  <a14:cameraTool cellRange="サブイベントテーブル定義!$A$1:$N$30" spid="_x0000_s1054"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1764,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BA46" sqref="BA46"/>
     </sheetView>
   </sheetViews>
@@ -1805,7 +1821,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1838,658 +1854,657 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="29.625" customWidth="1"/>
+    <col min="4" max="14" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="4" t="s">
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="17"/>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="F17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="F18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="F19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20" t="s">
+      <c r="F20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="21" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="21" t="s">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2499,8 +2514,9 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2508,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:N30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2519,767 +2535,767 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="7"/>
+      <c r="B27" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:N2"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
   </mergeCells>
